--- a/Compatibility/Compatibility (2).xlsx
+++ b/Compatibility/Compatibility (2).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB4EB9C-0115-402E-A546-870484644A8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="10215" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,6 @@
     <sheet name="Task3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -344,7 +342,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -697,14 +695,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -984,10 +982,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF109A28-B896-4CE2-8B9D-A64C497604D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1030,7 +1030,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4007DCDB-5F6A-4F09-9EDF-25F0FEDE2714}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1424,11 +1424,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AAEA20D-FE1D-4B50-8F64-17ABA0A32246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1460,19 +1460,19 @@
       <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="41" t="s">
         <v>84</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -1480,19 +1480,19 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="43"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="44"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="36">
@@ -1670,19 +1670,19 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="36">
@@ -1860,19 +1860,19 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="43"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
